--- a/app/upload_file/string_послепарсинга_26851041016.xlsx
+++ b/app/upload_file/string_послепарсинга_26851041016.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,49 +478,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00008120T7</t>
+          <t>00006426YN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FRZD</t>
+          <t>LISH</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>171</v>
+        <v>1024</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2198</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
+          <t>ГАЗ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82026</v>
+        <v>6270000290</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AVRL</t>
+          <t>RUZE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>2881</v>
       </c>
       <c r="F3" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,25 +531,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6270000290</v>
+        <v>362312</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RUZE</t>
+          <t>BBFC</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>2881</v>
+        <v>222</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -560,27 +560,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jonnesway</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AI010033</t>
-        </is>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>82026</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OXXL</t>
+          <t>AVRL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>915</v>
+        <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -622,421 +620,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alca</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>440000</v>
+          <t>Peugeot---Citroen</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>00008120T7</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LXYT</t>
+          <t>FRZD</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>368</v>
+        <v>171</v>
       </c>
       <c r="F7" t="n">
-        <v>81</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0888080375GO</t>
+          <t>00004254A2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FRZD</t>
+          <t>NICN</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>788</v>
+        <v>8682</v>
       </c>
       <c r="F8" t="n">
-        <v>3191</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>362312</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BBFC</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>222</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sparta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>531305</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MCSA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>276</v>
-      </c>
-      <c r="F10" t="n">
-        <v>125</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Denso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>K16RU11</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>NYZD</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>255</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2409</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>164005420R</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LYFD</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4939</v>
-      </c>
-      <c r="F12" t="n">
-        <v>300</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NICN</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8682</v>
-      </c>
-      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G8" t="n">
         <v>8501</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>JTC</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>JTC1507</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MCSA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>274</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1888</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LISH</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>33</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1024</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Hyundai / KIA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2630035505</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>KPAE</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>535</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6517</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nissan</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1102601M02</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ORQQ</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10132</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>VAG</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GA13A8JM1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>JVYC</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>35</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4369</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Дело Техники</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>820005</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>LVQN</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" t="n">
-        <v>715</v>
-      </c>
-      <c r="F19" t="n">
-        <v>497</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Autoprofi</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>BATBRS113</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FRZD</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>306</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
       </c>
     </row>
   </sheetData>
